--- a/TNR_PREJDD/RO/PREJDD.RO.CCO.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.CCO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -47,91 +47,28 @@
     <t>Champ</t>
   </si>
   <si>
-    <t>CAS DE TEST (COM)</t>
+    <t>CAS DE TEST (CMP)</t>
   </si>
   <si>
-    <t>ID_CODCOM</t>
-  </si>
-  <si>
-    <t>ID_CODUNI</t>
-  </si>
-  <si>
-    <t>ID_CODGES</t>
+    <t>ID_CODCMP</t>
   </si>
   <si>
     <t>ST_DES</t>
   </si>
   <si>
-    <t>NU_VALN</t>
+    <t>ID_CODUTI</t>
   </si>
   <si>
-    <t>DT_MAJN</t>
-  </si>
-  <si>
-    <t>NU_VALN1</t>
-  </si>
-  <si>
-    <t>DT_MAJN1</t>
-  </si>
-  <si>
-    <t>NU_VALN2</t>
-  </si>
-  <si>
-    <t>DT_MAJN2</t>
-  </si>
-  <si>
-    <t>NU_DEL</t>
-  </si>
-  <si>
-    <t>DT_MAJ</t>
-  </si>
-  <si>
-    <t>NU_COECOR</t>
-  </si>
-  <si>
-    <t>ST_NUMGTC</t>
-  </si>
-  <si>
-    <t>ST_MAJDEL</t>
-  </si>
-  <si>
-    <t>ID_CODUTI</t>
+    <t>ID_EXT</t>
   </si>
   <si>
     <t>ST_INA</t>
   </si>
   <si>
-    <t>NU_MET</t>
-  </si>
-  <si>
-    <t>NU_DEG</t>
-  </si>
-  <si>
-    <t>ST_MPH</t>
-  </si>
-  <si>
-    <t>ST_TELE</t>
-  </si>
-  <si>
-    <t>DT_DATREF</t>
-  </si>
-  <si>
-    <t>ID_CODCOMPRI</t>
-  </si>
-  <si>
-    <t>ST_COMMAJEQU</t>
-  </si>
-  <si>
-    <t>ST_COMMAJMAT</t>
-  </si>
-  <si>
-    <t>ST_COMNOTMAJ</t>
-  </si>
-  <si>
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>Création de l'onglet 001 pour la table COM</t>
+    <t>Création de l'onglet 001 pour la table CMP</t>
   </si>
   <si>
     <t/>
@@ -558,19 +495,19 @@
     </row>
     <row customHeight="1" ht="12.75" r="2" spans="1:6">
       <c r="A2" t="n" s="7">
-        <v>45007.67284491898</v>
+        <v>45008.372785914355</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s" s="8">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="3" spans="1:6"/>
@@ -4579,7 +4516,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB997"/>
+  <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4613,69 +4550,6 @@
       <c r="F1" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G1" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="Z1" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s" s="5">
-        <v>34</v>
-      </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" spans="1:2">
       <c r="A2" s="3"/>
